--- a/Data/brand.xlsx
+++ b/Data/brand.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DUANCNTT\PhoneZone\phonezone_backend\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7124F3F1-8FBE-40C9-9E1D-5867F4F25416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CFAB356-13FC-4243-B089-3B89B0FCC74B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$63</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="73">
   <si>
     <t>asus</t>
   </si>
@@ -208,6 +208,45 @@
   </si>
   <si>
     <t>Code</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>hong kong</t>
+  </si>
+  <si>
+    <t>dubai</t>
+  </si>
+  <si>
+    <t>https://cdn2.cellphones.com.vn/insecure/plain/https://cellphones.com.vn/media/wysiwyg/nothing-phone.png</t>
+  </si>
+  <si>
+    <t>https://cdn2.cellphones.com.vn/insecure/plain/https://cellphones.com.vn/media/tmp/catalog/product/i/n/infinixlogo.png</t>
+  </si>
+  <si>
+    <t>https://cdn2.cellphones.com.vn/insecure/plain/https://cellphones.com.vn/media/tmp/catalog/product/f/r/frame_69_1_.png</t>
+  </si>
+  <si>
+    <t>https://cdn2.cellphones.com.vn/insecure/plain/https://cellphones.com.vn/media/catalog/product/b/r/brand-icon-sony_2.png</t>
+  </si>
+  <si>
+    <t>https://cdn2.cellphones.com.vn/insecure/plain/https://cellphones.com.vn/media/wysiwyg/logo-itel-11.png</t>
+  </si>
+  <si>
+    <t>https://cdn2.cellphones.com.vn/insecure/plain/https://cellphones.com.vn/media/wysiwyg/nubia_1.png</t>
+  </si>
+  <si>
+    <t>https://cdn2.cellphones.com.vn/insecure/plain/https://cellphones.com.vn/media/wysiwyg/masstel-mobile-logo022.png</t>
+  </si>
+  <si>
+    <t>https://cdn2.cellphones.com.vn/insecure/plain/https://cellphones.com.vn/media/tmp/catalog/product/f/r/frame_65.png</t>
+  </si>
+  <si>
+    <t>https://cdn2.cellphones.com.vn/insecure/plain/https://cellphones.com.vn/media/tmp/catalog/product/t/i/tivi-logo-cate.png</t>
+  </si>
+  <si>
+    <t>https://cdn2.cellphones.com.vn/insecure/plain/https://cellphones.com.vn/media/wysiwyg/iinoi-mobile-logo022.png</t>
   </si>
 </sst>
 </file>
@@ -569,10 +608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -652,6 +691,9 @@
       <c r="B6" t="s">
         <v>4</v>
       </c>
+      <c r="C6" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7">
@@ -660,6 +702,9 @@
       <c r="B7" t="s">
         <v>5</v>
       </c>
+      <c r="C7" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="8" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -687,6 +732,9 @@
       <c r="B10" t="s">
         <v>8</v>
       </c>
+      <c r="C10" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
@@ -695,6 +743,9 @@
       <c r="B11" t="s">
         <v>9</v>
       </c>
+      <c r="C11" t="s">
+        <v>48</v>
+      </c>
       <c r="D11" t="s">
         <v>51</v>
       </c>
@@ -706,6 +757,12 @@
       <c r="B12" t="s">
         <v>10</v>
       </c>
+      <c r="C12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
@@ -714,6 +771,12 @@
       <c r="B13" t="s">
         <v>11</v>
       </c>
+      <c r="C13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
@@ -722,6 +785,9 @@
       <c r="B14" t="s">
         <v>12</v>
       </c>
+      <c r="C14" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
@@ -730,6 +796,9 @@
       <c r="B15" t="s">
         <v>13</v>
       </c>
+      <c r="C15" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
@@ -738,6 +807,12 @@
       <c r="B16" t="s">
         <v>14</v>
       </c>
+      <c r="C16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
@@ -762,6 +837,9 @@
       <c r="B19" t="s">
         <v>17</v>
       </c>
+      <c r="D19" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
@@ -805,6 +883,9 @@
       <c r="B24" t="s">
         <v>22</v>
       </c>
+      <c r="D24" s="3" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
@@ -813,6 +894,9 @@
       <c r="B25" t="s">
         <v>23</v>
       </c>
+      <c r="D25" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
@@ -821,6 +905,9 @@
       <c r="B26" t="s">
         <v>24</v>
       </c>
+      <c r="D26" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
@@ -842,154 +929,162 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
       <c r="B29" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
         <v>28</v>
       </c>
-      <c r="B30" t="s">
-        <v>27</v>
+      <c r="D30" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
         <v>29</v>
-      </c>
-      <c r="B31" t="s">
-        <v>28</v>
-      </c>
-      <c r="D31" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
         <v>30</v>
-      </c>
-      <c r="B32" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
         <v>31</v>
       </c>
-      <c r="B33" t="s">
-        <v>30</v>
+      <c r="D33" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
         <v>32</v>
-      </c>
-      <c r="B34" t="s">
-        <v>31</v>
-      </c>
-      <c r="D34" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
         <v>33</v>
       </c>
-      <c r="B35" t="s">
-        <v>32</v>
+      <c r="D35" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
         <v>34</v>
       </c>
-      <c r="B36" t="s">
-        <v>33</v>
+      <c r="D36" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
         <v>35</v>
       </c>
-      <c r="B37" t="s">
-        <v>34</v>
+      <c r="D37" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
         <v>36</v>
-      </c>
-      <c r="B38" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
         <v>37</v>
       </c>
-      <c r="B39" t="s">
-        <v>36</v>
+      <c r="D39" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
         <v>38</v>
-      </c>
-      <c r="B40" t="s">
-        <v>37</v>
-      </c>
-      <c r="D40" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
         <v>39</v>
       </c>
-      <c r="B41" t="s">
-        <v>38</v>
+      <c r="D41" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
         <v>40</v>
-      </c>
-      <c r="B42" t="s">
-        <v>39</v>
-      </c>
-      <c r="D42" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
         <v>41</v>
-      </c>
-      <c r="B43" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
         <v>42</v>
       </c>
-      <c r="B44" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>43</v>
-      </c>
-      <c r="B45" t="s">
-        <v>42</v>
+      <c r="D44" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{AD3598B0-DA82-4307-A192-488CBE589E2F}"/>
+    <hyperlink ref="D24" r:id="rId2" xr:uid="{E65D917D-E565-44E7-8DDF-544BDB8168C4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
